--- a/org.panorama-research.mobstr.requirements/mobstr-requirements.xlsx
+++ b/org.panorama-research.mobstr.requirements/mobstr-requirements.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbecker\Documents\PANORAMA\git-repos\mobstr-dataset\org.panorama-research.mobstr.requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beck_js\Documents\PANORAMA\git-repos\mobstr-dataset\org.panorama-research.mobstr.requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAF2BE7-7BA2-4910-9279-24DB7FBB7EB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11145" yWindow="4260" windowWidth="28500" windowHeight="18795"/>
+    <workbookView xWindow="11148" yWindow="4260" windowWidth="28500" windowHeight="18792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jan Steffen Becker</author>
   </authors>
   <commentList>
-    <comment ref="G86" authorId="0" shapeId="0">
+    <comment ref="G86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="256">
   <si>
     <t>ID</t>
   </si>
@@ -306,36 +307,6 @@
     <t>The system shall prevent omitting required avoidance maneuvers.</t>
   </si>
   <si>
-    <t>SR-1.1</t>
-  </si>
-  <si>
-    <t>SR-1.1.1</t>
-  </si>
-  <si>
-    <t>SR-1.1.2</t>
-  </si>
-  <si>
-    <t>SR-1.1.3</t>
-  </si>
-  <si>
-    <t>SR-1.2</t>
-  </si>
-  <si>
-    <t>SR-1.2.1</t>
-  </si>
-  <si>
-    <t>SR-1.2.2</t>
-  </si>
-  <si>
-    <t>SR-1.3</t>
-  </si>
-  <si>
-    <t>SR-1.5</t>
-  </si>
-  <si>
-    <t>SR-1.6</t>
-  </si>
-  <si>
     <t>SR-2.1</t>
   </si>
   <si>
@@ -525,9 +496,6 @@
     <t>FR-8.4</t>
   </si>
   <si>
-    <t>SR-1.4</t>
-  </si>
-  <si>
     <t>The system shall prevent omitting required braking maneuvers.</t>
   </si>
   <si>
@@ -579,9 +547,6 @@
     <t>FR-7.2.5</t>
   </si>
   <si>
-    <t>The system shall use more than one sensor used to identify obstacles.</t>
-  </si>
-  <si>
     <t>[Reference to SR-1.1 including sub-requirements]</t>
   </si>
   <si>
@@ -594,21 +559,12 @@
     <t>[Reference to SR-1.2 including sub-requirements]</t>
   </si>
   <si>
-    <t>SR-1.3.1</t>
-  </si>
-  <si>
     <t>The system shall identify when the path planner has failed.</t>
   </si>
   <si>
-    <t>SR-1.3.2</t>
-  </si>
-  <si>
     <t>The system shall identify when the object detection has failed.</t>
   </si>
   <si>
-    <t>SR-1.3.3</t>
-  </si>
-  <si>
     <t>The system shall identify when the sensor fusion has failed.</t>
   </si>
   <si>
@@ -678,9 +634,6 @@
     <t>The system shall detect when the road lane cannot be identified unambiguously.</t>
   </si>
   <si>
-    <t>SR-1.2.3</t>
-  </si>
-  <si>
     <t>The system shall use only information from working sensors.</t>
   </si>
   <si>
@@ -750,18 +703,12 @@
     <t>FHI = 2.43 s</t>
   </si>
   <si>
-    <t>FDI = 60 ms</t>
-  </si>
-  <si>
     <t>(not applicable)</t>
   </si>
   <si>
     <t>60 ms</t>
   </si>
   <si>
-    <t>FRI = 800 ms</t>
-  </si>
-  <si>
     <t>25 ms</t>
   </si>
   <si>
@@ -789,15 +736,6 @@
     <t>Object Localization</t>
   </si>
   <si>
-    <t>SR-1.2.1.1</t>
-  </si>
-  <si>
-    <t>SR-1.2.1.2</t>
-  </si>
-  <si>
-    <t>SR-1.2.1.3</t>
-  </si>
-  <si>
     <t>The system shall detect objects using camera.</t>
   </si>
   <si>
@@ -820,12 +758,81 @@
   </si>
   <si>
     <t>55 ms</t>
+  </si>
+  <si>
+    <t>SR-1-1.1</t>
+  </si>
+  <si>
+    <t>SR-1-1a</t>
+  </si>
+  <si>
+    <t>SR-1-1.1.1</t>
+  </si>
+  <si>
+    <t>SR-1-1.1.2</t>
+  </si>
+  <si>
+    <t>SR-1-1.2</t>
+  </si>
+  <si>
+    <t>SR-1-1.2.1</t>
+  </si>
+  <si>
+    <t>SR-1-1b</t>
+  </si>
+  <si>
+    <t>SR-1-1.2.2</t>
+  </si>
+  <si>
+    <t>SR-1-1.2.3</t>
+  </si>
+  <si>
+    <t>SR-1-1.3</t>
+  </si>
+  <si>
+    <t>SR-1-1.4</t>
+  </si>
+  <si>
+    <t>SR-1-2</t>
+  </si>
+  <si>
+    <t>SR-1-2.1</t>
+  </si>
+  <si>
+    <t>SR-1-2.2</t>
+  </si>
+  <si>
+    <t>SR-1-2.3</t>
+  </si>
+  <si>
+    <t>SR-1-3</t>
+  </si>
+  <si>
+    <t>SR-1-4</t>
+  </si>
+  <si>
+    <t>SR-1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall use two independent sensors, lidar and camera, for object detection. </t>
+  </si>
+  <si>
+    <t>1006 ms</t>
+  </si>
+  <si>
+    <t>1006 ms (whole chain)</t>
+  </si>
+  <si>
+    <t>FDI = 66 ms</t>
+  </si>
+  <si>
+    <t>FRI = 940 ms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1359,27 +1366,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="148.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="148.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="38.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="38.09765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="42" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="1"/>
+    <col min="9" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
@@ -1410,168 +1417,168 @@
         <v>46</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>73</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>251</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>173</v>
+        <v>239</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>231</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+    <row r="8" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="8" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="38" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1592,23 +1599,23 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="8" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="38" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1629,19 +1636,19 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="8" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="38" t="s">
@@ -1666,19 +1673,19 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="35" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="1" t="s">
@@ -1703,9 +1710,9 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>7</v>
@@ -1714,13 +1721,13 @@
         <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
         <v>67</v>
       </c>
@@ -1728,9 +1735,9 @@
       <c r="C15" s="30"/>
       <c r="F15" s="29"/>
     </row>
-    <row r="16" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>65</v>
@@ -1739,52 +1746,52 @@
         <v>74</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="G17" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>53</v>
@@ -1793,15 +1800,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="31"/>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>66</v>
@@ -1810,79 +1817,79 @@
         <v>75</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="31"/>
     </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="31"/>
     </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="31"/>
     </row>
-    <row r="27" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
       <c r="C27" s="26"/>
     </row>
-    <row r="28" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="C28" s="26"/>
     </row>
-    <row r="29" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
@@ -1896,44 +1903,44 @@
         <v>73</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="34"/>
       <c r="G30" s="33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="34"/>
       <c r="G31" s="33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>65</v>
@@ -1945,15 +1952,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="31"/>
     </row>
-    <row r="34" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>66</v>
@@ -1965,12 +1972,12 @@
         <v>40</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="8" t="s">
@@ -2015,13 +2022,13 @@
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
     </row>
-    <row r="36" spans="1:37" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="8" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>53</v>
@@ -2062,15 +2069,15 @@
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
     </row>
-    <row r="37" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="31"/>
     </row>
-    <row r="38" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>68</v>
@@ -2082,12 +2089,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>53</v>
@@ -2096,12 +2103,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>53</v>
@@ -2110,15 +2117,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="31"/>
     </row>
-    <row r="42" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>69</v>
@@ -2130,21 +2137,21 @@
         <v>5</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C43" s="31"/>
     </row>
-    <row r="44" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>74</v>
@@ -2153,12 +2160,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>53</v>
@@ -2167,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="27" t="s">
         <v>67</v>
       </c>
@@ -2175,13 +2182,13 @@
       <c r="C46" s="30"/>
       <c r="F46" s="29"/>
     </row>
-    <row r="47" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="8" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>75</v>
@@ -2192,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -2224,7 +2231,7 @@
       <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
     </row>
-    <row r="48" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="27" t="s">
         <v>67</v>
       </c>
@@ -2232,7 +2239,7 @@
       <c r="C48" s="30"/>
       <c r="F48" s="29"/>
     </row>
-    <row r="49" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
       <c r="B49" s="11"/>
       <c r="C49" s="8"/>
@@ -2271,11 +2278,11 @@
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>51</v>
       </c>
@@ -2283,7 +2290,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>73</v>
@@ -2292,46 +2299,46 @@
         <v>3</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="32" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E52" s="33"/>
       <c r="F52" s="34"/>
       <c r="G52" s="33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="32" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="34"/>
       <c r="G53" s="33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="8" t="s">
@@ -2345,7 +2352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="27" t="s">
         <v>67</v>
       </c>
@@ -2353,9 +2360,9 @@
       <c r="C55" s="30"/>
       <c r="F55" s="29"/>
     </row>
-    <row r="56" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="8" t="s">
@@ -2369,10 +2376,10 @@
         <v>38</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="27" t="s">
         <v>67</v>
       </c>
@@ -2380,13 +2387,13 @@
       <c r="C57" s="30"/>
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>74</v>
@@ -2396,7 +2403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="27" t="s">
         <v>67</v>
       </c>
@@ -2404,13 +2411,13 @@
       <c r="C59" s="30"/>
       <c r="F59" s="29"/>
     </row>
-    <row r="60" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="8" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>75</v>
@@ -2420,12 +2427,12 @@
         <v>5</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>29</v>
@@ -2434,15 +2441,15 @@
         <v>55</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>54</v>
@@ -2451,13 +2458,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A64" s="13"/>
     </row>
-    <row r="65" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>52</v>
       </c>
@@ -2474,44 +2481,44 @@
         <v>3</v>
       </c>
       <c r="H65" s="37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E66" s="33"/>
       <c r="F66" s="34"/>
       <c r="G66" s="33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E67" s="33"/>
       <c r="F67" s="34"/>
       <c r="G67" s="33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>65</v>
@@ -2523,91 +2530,91 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="27" t="s">
         <v>67</v>
       </c>
@@ -2615,9 +2622,9 @@
       <c r="C75" s="30"/>
       <c r="F75" s="29"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="15" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>66</v>
@@ -2629,12 +2636,12 @@
         <v>40</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>29</v>
@@ -2643,10 +2650,10 @@
         <v>55</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="27" t="s">
         <v>67</v>
       </c>
@@ -2654,9 +2661,9 @@
       <c r="C78" s="30"/>
       <c r="F78" s="29"/>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="8" t="s">
@@ -2670,7 +2677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="27" t="s">
         <v>67</v>
       </c>
@@ -2678,9 +2685,9 @@
       <c r="C80" s="30"/>
       <c r="F80" s="29"/>
     </row>
-    <row r="81" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="8" t="s">
@@ -2694,10 +2701,10 @@
         <v>5</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="82" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="27" t="s">
         <v>67</v>
       </c>
@@ -2705,11 +2712,11 @@
       <c r="C82" s="30"/>
       <c r="F82" s="29"/>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C83" s="8"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="13"/>
       <c r="B84" s="11"/>
       <c r="C84" s="8"/>
@@ -2748,7 +2755,7 @@
       <c r="AJ84" s="2"/>
       <c r="AK84" s="2"/>
     </row>
-    <row r="85" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>64</v>
       </c>
@@ -2765,12 +2772,12 @@
         <v>2</v>
       </c>
       <c r="H85" s="37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="8" t="s">
@@ -2784,9 +2791,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="17" t="s">
@@ -2831,7 +2838,7 @@
       <c r="AJ87" s="2"/>
       <c r="AK87" s="2"/>
     </row>
-    <row r="88" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="27" t="s">
         <v>67</v>
       </c>
@@ -2839,9 +2846,9 @@
       <c r="C88" s="30"/>
       <c r="F88" s="29"/>
     </row>
-    <row r="89" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="8" t="s">
@@ -2855,12 +2862,12 @@
         <v>30</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="90" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="17" t="s">
@@ -2905,9 +2912,9 @@
       <c r="AJ90" s="2"/>
       <c r="AK90" s="2"/>
     </row>
-    <row r="91" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="17" t="s">
@@ -2919,7 +2926,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="11"/>
       <c r="G91" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -2952,13 +2959,13 @@
       <c r="AJ91" s="2"/>
       <c r="AK91" s="2"/>
     </row>
-    <row r="92" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="8" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>53</v>
@@ -2999,7 +3006,7 @@
       <c r="AJ92" s="2"/>
       <c r="AK92" s="2"/>
     </row>
-    <row r="93" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="27" t="s">
         <v>67</v>
       </c>
@@ -3007,9 +3014,9 @@
       <c r="C93" s="30"/>
       <c r="F93" s="29"/>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>65</v>
@@ -3021,9 +3028,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="8" t="s">
@@ -3068,13 +3075,13 @@
       <c r="AJ95" s="2"/>
       <c r="AK95" s="2"/>
     </row>
-    <row r="96" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="8" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>53</v>
@@ -3115,7 +3122,7 @@
       <c r="AJ96" s="2"/>
       <c r="AK96" s="2"/>
     </row>
-    <row r="97" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="27" t="s">
         <v>67</v>
       </c>
@@ -3123,9 +3130,9 @@
       <c r="C97" s="30"/>
       <c r="F97" s="29"/>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>66</v>
@@ -3137,19 +3144,19 @@
         <v>40</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="11"/>
@@ -3187,7 +3194,7 @@
       <c r="AJ99" s="2"/>
       <c r="AK99" s="2"/>
     </row>
-    <row r="100" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="27" t="s">
         <v>67</v>
       </c>
@@ -3195,9 +3202,9 @@
       <c r="C100" s="30"/>
       <c r="F100" s="29"/>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A101" s="15" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>68</v>
@@ -3209,7 +3216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="27" t="s">
         <v>67</v>
       </c>
@@ -3217,9 +3224,9 @@
       <c r="C102" s="30"/>
       <c r="F102" s="29"/>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A103" s="15" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>69</v>
@@ -3231,10 +3238,10 @@
         <v>5</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="104" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="27" t="s">
         <v>67</v>
       </c>
@@ -3242,9 +3249,9 @@
       <c r="C104" s="30"/>
       <c r="F104" s="29"/>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A105" s="15" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C105" s="17" t="s">
         <v>76</v>
@@ -3256,7 +3263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="27" t="s">
         <v>67</v>
       </c>
@@ -3264,9 +3271,9 @@
       <c r="C106" s="30"/>
       <c r="F106" s="29"/>
     </row>
-    <row r="107" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="8" t="s">
@@ -3281,7 +3288,7 @@
         <v>5</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
@@ -3313,7 +3320,7 @@
       <c r="AJ107" s="2"/>
       <c r="AK107" s="2"/>
     </row>
-    <row r="108" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="27" t="s">
         <v>67</v>
       </c>
@@ -3321,13 +3328,13 @@
       <c r="C108" s="30"/>
       <c r="F108" s="29"/>
     </row>
-    <row r="109" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>74</v>
@@ -3368,7 +3375,7 @@
       <c r="AJ109" s="2"/>
       <c r="AK109" s="2"/>
     </row>
-    <row r="110" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="27" t="s">
         <v>67</v>
       </c>
@@ -3376,13 +3383,13 @@
       <c r="C110" s="30"/>
       <c r="F110" s="29"/>
     </row>
-    <row r="111" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="8" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>75</v>
@@ -3393,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
@@ -3425,7 +3432,7 @@
       <c r="AJ111" s="2"/>
       <c r="AK111" s="2"/>
     </row>
-    <row r="112" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="27" t="s">
         <v>67</v>
       </c>
@@ -3433,7 +3440,7 @@
       <c r="C112" s="30"/>
       <c r="F112" s="29"/>
     </row>
-    <row r="113" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="13"/>
       <c r="B113" s="11"/>
       <c r="C113" s="8"/>
@@ -3472,7 +3479,7 @@
       <c r="AJ113" s="2"/>
       <c r="AK113" s="2"/>
     </row>
-    <row r="114" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="13"/>
       <c r="B114" s="11"/>
       <c r="C114" s="8"/>
@@ -3511,9 +3518,9 @@
       <c r="AJ114" s="2"/>
       <c r="AK114" s="2"/>
     </row>
-    <row r="115" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="21" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C115" s="23" t="s">
         <v>10</v>
@@ -3522,9 +3529,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A116" s="13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>11</v>
@@ -3536,9 +3543,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A117" s="13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>12</v>
@@ -3550,9 +3557,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A118" s="15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>13</v>
@@ -3564,9 +3571,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A119" s="15" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>14</v>
@@ -3578,13 +3585,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A120" s="15" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B120" s="25"/>
       <c r="C120" s="8" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>4</v>
@@ -3596,13 +3603,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B121" s="25"/>
       <c r="C121" s="8" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>4</v>
@@ -3614,9 +3621,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A122" s="15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>41</v>
@@ -3631,9 +3638,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>15</v>
@@ -3645,9 +3652,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>16</v>
@@ -3659,9 +3666,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A125" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>17</v>
@@ -3673,12 +3680,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>21</v>
@@ -3687,9 +3694,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A127" s="15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>18</v>
@@ -3701,7 +3708,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="13"/>
       <c r="B128" s="11"/>
       <c r="C128" s="8"/>
@@ -3740,7 +3747,7 @@
       <c r="AJ128" s="2"/>
       <c r="AK128" s="2"/>
     </row>
-    <row r="129" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="13"/>
       <c r="B129" s="11"/>
       <c r="C129" s="8"/>
@@ -3779,23 +3786,23 @@
       <c r="AJ129" s="2"/>
       <c r="AK129" s="2"/>
     </row>
-    <row r="130" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="21" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>4</v>
@@ -3807,9 +3814,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="8" t="s">
@@ -3823,9 +3830,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="8" t="s">
@@ -3839,9 +3846,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A134" s="13" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C134" s="17" t="s">
         <v>6</v>
@@ -3853,9 +3860,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C135" s="17" t="s">
         <v>3</v>
@@ -3867,9 +3874,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C136" s="17" t="s">
         <v>34</v>
@@ -3881,13 +3888,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="8" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>4</v>
@@ -3899,19 +3906,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A138" s="13"/>
       <c r="B138" s="24"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A139" s="13"/>
       <c r="B139" s="24"/>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="21" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C140" s="23" t="s">
         <v>80</v>
@@ -3920,9 +3927,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="8" t="s">
@@ -3967,9 +3974,9 @@
       <c r="AJ141" s="2"/>
       <c r="AK141" s="2"/>
     </row>
-    <row r="142" spans="1:37" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:37" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="8" t="s">
@@ -4016,13 +4023,13 @@
       <c r="AJ142" s="2"/>
       <c r="AK142" s="2"/>
     </row>
-    <row r="143" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:37" s="5" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A143" s="13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="8" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>4</v>
@@ -4065,13 +4072,13 @@
       <c r="AJ143" s="2"/>
       <c r="AK143" s="2"/>
     </row>
-    <row r="144" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="8" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>4</v>
@@ -4114,7 +4121,7 @@
       <c r="AJ144" s="2"/>
       <c r="AK144" s="2"/>
     </row>
-    <row r="145" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="13"/>
       <c r="B145" s="11"/>
       <c r="C145" s="8"/>
@@ -4153,13 +4160,13 @@
       <c r="AJ145" s="2"/>
       <c r="AK145" s="2"/>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A146" s="13"/>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A147" s="13"/>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C148" s="8"/>
       <c r="G148" s="2"/>
     </row>
